--- a/Assets/StreamingAssets/DialogueBefore.xlsx
+++ b/Assets/StreamingAssets/DialogueBefore.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C14015D-B43F-4BBD-B876-DB8A793C3286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4042EF6-B6AD-428E-99DA-4DE8932B1943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,22 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好久没有遇到旧时代的亡魂了，趁这个机会来练习一下攻防技能吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安逸了太久，技能果然有些生疏了啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI：检测到赛博獵犬袭击，此机型为旧型号，无特殊能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入战斗界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出乎意料的，一位收藏家高价收下了我上次寻得的信息，令我大赚了一笔。实在想不到，在这个时代，还有人会对已经过时的信息视若珍宝。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI：提醒，当前检索信息已不具有价值，是否确认继续寻找。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI似乎判定我有误操作的可能性，于是向我发起了确认。我很清楚我所做的是无意义的事，AI的反应也合乎逻辑，不理智的是我自己罢了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,14 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI：警告，安保系统发现我们的行踪，即将发动攻击，请做好战斗准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘈杂的声音令我感到烦躁，我打起精神，准备速战速决。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>霓虹之下，车水马龙。我站在繁华的上层网络，寻找着最后的地点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,34 +270,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI：警告！此地区为XT公司资产范围，擅自提取将被视为盗窃行为。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不，我没有盗窃。我只是在捡垃圾而已，是这个时代没人会要的垃圾。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI：此行为将违反信息财产法第10条第24项，将被追究法律责任。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>警告声在脑海中回响，我犹豫了。一旦跨过那条红线，便是万劫不复，大公司绝对不会放过我的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可我现在这样活着，有有什么意义呢。关于古代人的深邃思想，关于人生的真理，或许就在眼前，我又怎么能就此放弃。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI：正在提取信息。XT公司萨姆型号来巡察者正在赶来的路上，即将遭遇袭击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我深吸了一口气，准备面对强大的现役警卫设备。无论结果如何，我都没有后悔，开始吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如今的网络囊括了从原始网络建立至今上百年的信息，在如此庞大的信息之海中找到有价值的信息，可能性微乎其微。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI：警告！您已被XT公司通缉，炽天使警卫系统将于30s后抵达此地，请做好战斗准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这就是最后的审判吗。                                                                                                                                                                                                                                                                     我从沉睡中醒来，又将在清醒中永远睡去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这是我对这个时代最后的反抗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +331,66 @@
   </si>
   <si>
     <t>这些墓碑就这样立在城市之中，没人会觉得怪异。不过是一些还保有一些情感的人立下的行为艺术罢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：检测到赛博猎犬袭击，此机型为旧型号，无特殊能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：即将进入战斗界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等…已经靠近了吗，我还没准备好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧时代的亡魂吗…是个练手的好选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：提醒，按照逻辑，当前行为收益极低，且具有一定风险。是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：敌人来袭。安保系统正在缓慢苏醒，建议速战速决。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看来要全力进攻，避免陷入持久战才行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：警告！此地区为迅腾公司资产范围，擅自提取将被视为盗窃行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可我只是在捡垃圾而已...这个时代没人会要的垃圾…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜红的警报窗口填满了视线。一旦跨过那条红线，便是万劫不复，或许我微不足道，但也正因此，他们抹杀我易如反掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可我现在这样活着，有有什么意义呢。前所未有的冲动，对迷茫生活的强烈厌恶，从出生就伴随着我的巨大压力…我已经成了离弦之箭，我早该成为离弦之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：正在提取信息。迅腾公司萨姆型号巡察者正在接近。此类型敌人攻势迅猛，建议躲避。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲？我又能躲到哪去？既无退路，快意一战！强烈的战意，让我那颗被时代扼住的心剧烈挣扎，跳动。便来看看谁的刀锋更凛冽吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI：警告！您已被XT公司通缉，炽天使警卫系统将于30s后抵达此地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就是最后的审判吗。                                                                                                                                                                                                                                                                    我从沉睡中醒来，又将在清醒中永远睡去。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -865,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>5</v>
@@ -883,19 +883,19 @@
         <v>11</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="289.8" x14ac:dyDescent="0.25">
@@ -906,73 +906,73 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="282" customHeight="1" x14ac:dyDescent="0.25">
@@ -983,97 +983,97 @@
         <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="T5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AE5" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="216.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="249.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1081,55 +1081,55 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="180.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1137,34 +1137,34 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
